--- a/Overall Design.xlsx
+++ b/Overall Design.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
   <si>
     <t xml:space="preserve">3.5mm Jack Sockets</t>
   </si>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">VCO</t>
   </si>
   <si>
-    <t xml:space="preserve">Will have to hand match 2 NPN transistors for Core oscilator (2n3904 recomended)</t>
+    <t xml:space="preserve">Will have to hand match 2 NPN transistors for Core oscillator (2n3904 recomended)</t>
   </si>
   <si>
     <t xml:space="preserve">resistor R12 on matched transistors to stabilize temperature</t>
@@ -113,6 +113,9 @@
     <t xml:space="preserve">0 to 100Hz Voltage Controlled</t>
   </si>
   <si>
+    <t xml:space="preserve">In Progress</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.yusynth.net/Modular/Commun/LFO/new/VCLFO2-sch.gif</t>
   </si>
   <si>
@@ -140,7 +143,7 @@
     <t xml:space="preserve">https://international.switch-science.com/catalog/3399/</t>
   </si>
   <si>
-    <t xml:space="preserve">Controlls:</t>
+    <t xml:space="preserve">Controls:</t>
   </si>
   <si>
     <t xml:space="preserve">1v/Oct Keyboard</t>
@@ -182,9 +185,6 @@
     <t xml:space="preserve">7555 CMOS based</t>
   </si>
   <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.yusynth.net/Modular/Commun/ADSR/ADSR555-FINAL.gif</t>
   </si>
   <si>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">Audio Mixer</t>
   </si>
   <si>
-    <t xml:space="preserve">Quad 3x2 or Dual 6x1 slectable mixing</t>
+    <t xml:space="preserve">Quad 3x2 or Dual 6x1 selectable mixing</t>
   </si>
   <si>
     <t xml:space="preserve">http://musicfromouterspace.com/analogsynth_new/QUAD_AUDSUBMIX/pdf/quadaudmix_singlesided_ap07_page_1_assembly.pdf</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">Drums:</t>
   </si>
   <si>
-    <t xml:space="preserve">TR-808 cloan with modern parts</t>
+    <t xml:space="preserve">TR-808 clone with modern parts</t>
   </si>
   <si>
     <t xml:space="preserve">Want to do these in circuits not with samples</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">VU Meters</t>
   </si>
   <si>
-    <t xml:space="preserve">Incorperate ones I already have somewhere into a panel</t>
+    <t xml:space="preserve">Incorporate ones I already have somewhere into a panel</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/dp/B089S34TSK/</t>
@@ -796,12 +796,12 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.22"/>
@@ -948,17 +948,19 @@
       <c r="E10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="3" t="n">
@@ -968,92 +970,92 @@
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>54</v>
@@ -1750,7 +1752,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.57"/>

--- a/Overall Design.xlsx
+++ b/Overall Design.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="175">
   <si>
     <t xml:space="preserve">3.5mm Jack Sockets</t>
   </si>
@@ -113,9 +113,6 @@
     <t xml:space="preserve">0 to 100Hz Voltage Controlled</t>
   </si>
   <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.yusynth.net/Modular/Commun/LFO/new/VCLFO2-sch.gif</t>
   </si>
   <si>
@@ -134,12 +131,12 @@
     <t xml:space="preserve">Yahmaha Sound Chip</t>
   </si>
   <si>
-    <t xml:space="preserve">YMF825 might have to be stand alone module</t>
-  </si>
-  <si>
     <t xml:space="preserve">Controlled Via Arduino that converts 1v/Oct to SPI commands and MIDI Control</t>
   </si>
   <si>
+    <t xml:space="preserve">https://cheerful.nl/OPL3Duo/index.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://international.switch-science.com/catalog/3399/</t>
   </si>
   <si>
@@ -170,13 +167,10 @@
     <t xml:space="preserve">MIDI to 1v/Oct convertor</t>
   </si>
   <si>
-    <t xml:space="preserve">Might have to buy one, but $130 price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://musicfromouterspace.com/index.php?MAINTAB=SYNTHDIY&amp;PROJARG=THE_CAVE/MIDI%20to%20CV%20Old%20Design%20I/midi2cv.htm&amp;VPW=1641&amp;VPH=694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.paia.com/proddetail.asp?prod=9700K</t>
+    <t xml:space="preserve">Arduino Nano based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/elkayem/midi2cv</t>
   </si>
   <si>
     <t xml:space="preserve">ADSR Envelope Gen</t>
@@ -291,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comb Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In process</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/MMImodular/Modules/tree/master/Two%20Nine%20Five</t>
@@ -675,7 +672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -701,6 +698,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -796,7 +797,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,18 +950,18 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="3" t="n">
@@ -970,86 +971,84 @@
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="6" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
+      <c r="G12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="4" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>3</v>
@@ -1058,21 +1057,21 @@
         <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1</v>
@@ -1081,21 +1080,21 @@
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1</v>
@@ -1104,21 +1103,21 @@
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1</v>
@@ -1127,21 +1126,21 @@
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>1</v>
@@ -1150,21 +1149,21 @@
         <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>1</v>
@@ -1173,21 +1172,21 @@
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1</v>
@@ -1196,28 +1195,28 @@
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,20 +1224,20 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>3</v>
@@ -1247,18 +1246,20 @@
         <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="E30" s="2" t="n">
         <v>2</v>
       </c>
@@ -1266,109 +1267,113 @@
         <v>12</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="E31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="E32" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>1</v>
@@ -1376,10 +1381,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="n">
@@ -1387,111 +1392,111 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,154 +1504,154 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>4</v>
@@ -1655,26 +1660,26 @@
         <v>12</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1686,48 +1691,47 @@
     <hyperlink ref="G10" r:id="rId5" display="http://www.yusynth.net/Modular/Commun/LFO/new/VCLFO2-sch.gif"/>
     <hyperlink ref="G11" r:id="rId6" display="https://electronicsproject.org/white-lf-noise-generator/"/>
     <hyperlink ref="H11" r:id="rId7" display="https://syntherjack.net/make-some-pink-noise-generator/"/>
-    <hyperlink ref="G12" r:id="rId8" display="https://international.switch-science.com/catalog/3399/"/>
-    <hyperlink ref="G15" r:id="rId9" display="http://musicfromouterspace.com/analogsynth_new/SINGLEBUSSKEYBOARD2007/SINGLEBUSSKEYBOARD2007.php"/>
-    <hyperlink ref="H15" r:id="rId10" display="http://musicfromouterspace.com/index.php?MAINTAB=SYNTHDIY&amp;PROJARG=OLDIESBUTGOODIES/CONTROLLERS/scanningmatrixkeyboard2.html"/>
-    <hyperlink ref="I15" r:id="rId11" display="https://www.amazon.com/dp/B01NCRMHOY/ref=cm_sw_r_cp_apa_i_slYVDbC0Q736E"/>
-    <hyperlink ref="G16" r:id="rId12" display="http://musicfromouterspace.com/index.php?MAINTAB=SYNTHDIY&amp;PROJARG=THE_CAVE/MIDI%20to%20CV%20Old%20Design%20I/midi2cv.htm&amp;VPW=1641&amp;VPH=694"/>
-    <hyperlink ref="H16" r:id="rId13" display="https://www.paia.com/proddetail.asp?prod=9700K"/>
-    <hyperlink ref="G17" r:id="rId14" display="http://www.yusynth.net/Modular/Commun/ADSR/ADSR555-FINAL.gif"/>
-    <hyperlink ref="I17" r:id="rId15" display="https://www.mouser.com/ProductDetail/Renesas-Intersil/ICM7555IBAZ?qs=sGAEpiMZZMuMkwKcEjFF1DKkkjlJC%252BiV0YP9oldmkZw%3D"/>
-    <hyperlink ref="I18" r:id="rId16" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC05ADG?qs=sGAEpiMZZMuyBeSSR239Ib5Er6brc0BYF0Guzh6QuN8%3D"/>
-    <hyperlink ref="I19" r:id="rId17" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC08ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkYqd0v8HV2x4%3D"/>
-    <hyperlink ref="I20" r:id="rId18" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC00ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkN%252BVXmh%252BQLmg%3D"/>
-    <hyperlink ref="I21" r:id="rId19" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC02ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkn3pzSdRhBSQ%3D"/>
-    <hyperlink ref="I22" r:id="rId20" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC32ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSknn3A2650p50%3D"/>
-    <hyperlink ref="I23" r:id="rId21" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC86ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkYIxafB46Gjs%3D"/>
-    <hyperlink ref="G24" r:id="rId22" location="/sequencer-keyboard" display="https://www.lookmumnocomputer.com/projects#/sequencer-keyboard"/>
-    <hyperlink ref="G28" r:id="rId23" display="http://www.yusynth.net/archives/ElectronicDesign/N-Steiner-VCF-1974-edited.pdf"/>
-    <hyperlink ref="G30" r:id="rId24" display="https://makingcircuits.com/wp-content/uploads/2020/06/fig1-40.jpg"/>
-    <hyperlink ref="G31" r:id="rId25" display="https://github.com/MMImodular/Modules/tree/master/Two%20Nine%20Five"/>
-    <hyperlink ref="G32" r:id="rId26" display="https://www.yusynth.net/Modular/EN/MOOGVCF/index.html"/>
-    <hyperlink ref="G35" r:id="rId27" display="http://www.synthpanel.com/modules/cgs81_mixer.html"/>
-    <hyperlink ref="G36" r:id="rId28" display="http://www.synthpanel.com/modules/cgs64_vca.html"/>
-    <hyperlink ref="G37" r:id="rId29" display="http://musicfromouterspace.com/analogsynth_new/CVNGTEXPANDER2015/pdf/cvngtexpand2015_schem.pdf"/>
-    <hyperlink ref="G38" r:id="rId30" display="http://musicfromouterspace.com/analogsynth_new/QUAD_DC_MIXER/pdf/qdcmx_page_1_assembly.pdf"/>
-    <hyperlink ref="H38" r:id="rId31" display="http://musicfromouterspace.com/analogsynth_new/QUAD_DC_MIXER/pdf/qdcmx_page_2_assembly.pdf"/>
-    <hyperlink ref="G40" r:id="rId32" display="http://musicfromouterspace.com/analogsynth_new/QUAD_AUDSUBMIX/pdf/quadaudmix_singlesided_ap07_page_1_assembly.pdf"/>
-    <hyperlink ref="H40" r:id="rId33" display="http://musicfromouterspace.com/analogsynth_new/QUAD_AUDSUBMIX/pdf/quadaudmix_singlesided_ap07_page_2_assembly.pdf"/>
-    <hyperlink ref="G43" r:id="rId34" display="https://www.experimentalistsanonymous.com/diy/Schematics/Delay%20Echo%20and%20Samplers/DOD%20FX96.pdf"/>
-    <hyperlink ref="G44" r:id="rId35" display="http://www.synthpanel.com/modules/cgs95_rev.html"/>
-    <hyperlink ref="I44" r:id="rId36" display="https://reverb.com/item/27734603-reverb-module-accutronics-belton-digi-log-horizontal-mini-decay-length-long-2-85-seconds"/>
-    <hyperlink ref="G45" r:id="rId37" display="http://www.synthpanel.com/modules/cgs90_phaser.html"/>
-    <hyperlink ref="G46" r:id="rId38" display="https://www.experimentalistsanonymous.com/diy/Schematics/Delay%20Echo%20and%20Samplers/Morley%20Echo%20Chorus%20Vibrato.pdf"/>
-    <hyperlink ref="G47" r:id="rId39" display="https://www.experimentalistsanonymous.com/diy/Schematics/Distortion%20Boost%20and%20Overdrive/Tube%20Distortion.pdf"/>
-    <hyperlink ref="G48" r:id="rId40" display="http://www.synthpanel.com/modules/cgs67_rrm2.html"/>
-    <hyperlink ref="G49" r:id="rId41" display="https://www.experimentalistsanonymous.com/diy/Schematics/Delay%20Echo%20and%20Samplers/Ibanez%20DL5%20Delay.gif"/>
-    <hyperlink ref="G51" r:id="rId42" display="http://www.ericarcher.net/wp-content/uploads/2014/07/808-svc-man.pdf"/>
-    <hyperlink ref="G53" r:id="rId43" display="https://www.mouser.com/ProductDetail/Nexperia/2PB710ASL235?qs=sGAEpiMZZMshyDBzk1%2FWi52RVK2L3atPxi1qn5tgNHE%3D"/>
-    <hyperlink ref="G54" r:id="rId44" display="https://www.mouser.com/ProductDetail/Toshiba/TMBT3904LM?qs=bKenfurwlsnhmcJluizbsQ%3D%3D"/>
-    <hyperlink ref="G55" r:id="rId45" display="https://www.mouser.com/ProductDetail/Texas-Instruments/RC4558DRG4?qs=sGAEpiMZZMtOXy69nW9rMz%252BtskKIMI%2FPc2%2F0yULzoFA%3D"/>
-    <hyperlink ref="G56" r:id="rId46" display="https://www.mouser.com/ProductDetail/Toshiba/TBC857BLM?qs=eFOtW6xYNWG%2F1ZkHsIrkYA%3D%3D"/>
-    <hyperlink ref="G57" r:id="rId47" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/1N4148W-7-F?qs=sGAEpiMZZMtoHjESLttvkiKikX2YhTL0GOrSkzAUFgM%3D"/>
-    <hyperlink ref="G70" r:id="rId48" display="http://www.synthpanel.com/modules/cgs93_trunk.html"/>
-    <hyperlink ref="G73" r:id="rId49" display="https://www.amazon.com/dp/B089S34TSK/"/>
+    <hyperlink ref="G12" r:id="rId8" display="https://cheerful.nl/OPL3Duo/index.html"/>
+    <hyperlink ref="H12" r:id="rId9" display="https://international.switch-science.com/catalog/3399/"/>
+    <hyperlink ref="G15" r:id="rId10" display="http://musicfromouterspace.com/analogsynth_new/SINGLEBUSSKEYBOARD2007/SINGLEBUSSKEYBOARD2007.php"/>
+    <hyperlink ref="H15" r:id="rId11" display="http://musicfromouterspace.com/index.php?MAINTAB=SYNTHDIY&amp;PROJARG=OLDIESBUTGOODIES/CONTROLLERS/scanningmatrixkeyboard2.html"/>
+    <hyperlink ref="I15" r:id="rId12" display="https://www.amazon.com/dp/B01NCRMHOY/ref=cm_sw_r_cp_apa_i_slYVDbC0Q736E"/>
+    <hyperlink ref="G17" r:id="rId13" display="http://www.yusynth.net/Modular/Commun/ADSR/ADSR555-FINAL.gif"/>
+    <hyperlink ref="I17" r:id="rId14" display="https://www.mouser.com/ProductDetail/Renesas-Intersil/ICM7555IBAZ?qs=sGAEpiMZZMuMkwKcEjFF1DKkkjlJC%252BiV0YP9oldmkZw%3D"/>
+    <hyperlink ref="I18" r:id="rId15" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC05ADG?qs=sGAEpiMZZMuyBeSSR239Ib5Er6brc0BYF0Guzh6QuN8%3D"/>
+    <hyperlink ref="I19" r:id="rId16" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC08ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkYqd0v8HV2x4%3D"/>
+    <hyperlink ref="I20" r:id="rId17" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC00ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkN%252BVXmh%252BQLmg%3D"/>
+    <hyperlink ref="I21" r:id="rId18" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC02ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkn3pzSdRhBSQ%3D"/>
+    <hyperlink ref="I22" r:id="rId19" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC32ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSknn3A2650p50%3D"/>
+    <hyperlink ref="I23" r:id="rId20" display="https://www.mouser.com/ProductDetail/ON-Semiconductor/MC74HC86ADG?qs=sGAEpiMZZMuyBeSSR239IVOYZL%2FawrSkYIxafB46Gjs%3D"/>
+    <hyperlink ref="G24" r:id="rId21" location="/sequencer-keyboard" display="https://www.lookmumnocomputer.com/projects#/sequencer-keyboard"/>
+    <hyperlink ref="G28" r:id="rId22" display="http://www.yusynth.net/archives/ElectronicDesign/N-Steiner-VCF-1974-edited.pdf"/>
+    <hyperlink ref="G30" r:id="rId23" display="https://makingcircuits.com/wp-content/uploads/2020/06/fig1-40.jpg"/>
+    <hyperlink ref="G31" r:id="rId24" display="https://github.com/MMImodular/Modules/tree/master/Two%20Nine%20Five"/>
+    <hyperlink ref="G32" r:id="rId25" display="https://www.yusynth.net/Modular/EN/MOOGVCF/index.html"/>
+    <hyperlink ref="G35" r:id="rId26" display="http://www.synthpanel.com/modules/cgs81_mixer.html"/>
+    <hyperlink ref="G36" r:id="rId27" display="http://www.synthpanel.com/modules/cgs64_vca.html"/>
+    <hyperlink ref="G37" r:id="rId28" display="http://musicfromouterspace.com/analogsynth_new/CVNGTEXPANDER2015/pdf/cvngtexpand2015_schem.pdf"/>
+    <hyperlink ref="G38" r:id="rId29" display="http://musicfromouterspace.com/analogsynth_new/QUAD_DC_MIXER/pdf/qdcmx_page_1_assembly.pdf"/>
+    <hyperlink ref="H38" r:id="rId30" display="http://musicfromouterspace.com/analogsynth_new/QUAD_DC_MIXER/pdf/qdcmx_page_2_assembly.pdf"/>
+    <hyperlink ref="G40" r:id="rId31" display="http://musicfromouterspace.com/analogsynth_new/QUAD_AUDSUBMIX/pdf/quadaudmix_singlesided_ap07_page_1_assembly.pdf"/>
+    <hyperlink ref="H40" r:id="rId32" display="http://musicfromouterspace.com/analogsynth_new/QUAD_AUDSUBMIX/pdf/quadaudmix_singlesided_ap07_page_2_assembly.pdf"/>
+    <hyperlink ref="G43" r:id="rId33" display="https://www.experimentalistsanonymous.com/diy/Schematics/Delay%20Echo%20and%20Samplers/DOD%20FX96.pdf"/>
+    <hyperlink ref="G44" r:id="rId34" display="http://www.synthpanel.com/modules/cgs95_rev.html"/>
+    <hyperlink ref="I44" r:id="rId35" display="https://reverb.com/item/27734603-reverb-module-accutronics-belton-digi-log-horizontal-mini-decay-length-long-2-85-seconds"/>
+    <hyperlink ref="G45" r:id="rId36" display="http://www.synthpanel.com/modules/cgs90_phaser.html"/>
+    <hyperlink ref="G46" r:id="rId37" display="https://www.experimentalistsanonymous.com/diy/Schematics/Delay%20Echo%20and%20Samplers/Morley%20Echo%20Chorus%20Vibrato.pdf"/>
+    <hyperlink ref="G47" r:id="rId38" display="https://www.experimentalistsanonymous.com/diy/Schematics/Distortion%20Boost%20and%20Overdrive/Tube%20Distortion.pdf"/>
+    <hyperlink ref="G48" r:id="rId39" display="http://www.synthpanel.com/modules/cgs67_rrm2.html"/>
+    <hyperlink ref="G49" r:id="rId40" display="https://www.experimentalistsanonymous.com/diy/Schematics/Delay%20Echo%20and%20Samplers/Ibanez%20DL5%20Delay.gif"/>
+    <hyperlink ref="G51" r:id="rId41" display="http://www.ericarcher.net/wp-content/uploads/2014/07/808-svc-man.pdf"/>
+    <hyperlink ref="G53" r:id="rId42" display="https://www.mouser.com/ProductDetail/Nexperia/2PB710ASL235?qs=sGAEpiMZZMshyDBzk1%2FWi52RVK2L3atPxi1qn5tgNHE%3D"/>
+    <hyperlink ref="G54" r:id="rId43" display="https://www.mouser.com/ProductDetail/Toshiba/TMBT3904LM?qs=bKenfurwlsnhmcJluizbsQ%3D%3D"/>
+    <hyperlink ref="G55" r:id="rId44" display="https://www.mouser.com/ProductDetail/Texas-Instruments/RC4558DRG4?qs=sGAEpiMZZMtOXy69nW9rMz%252BtskKIMI%2FPc2%2F0yULzoFA%3D"/>
+    <hyperlink ref="G56" r:id="rId45" display="https://www.mouser.com/ProductDetail/Toshiba/TBC857BLM?qs=eFOtW6xYNWG%2F1ZkHsIrkYA%3D%3D"/>
+    <hyperlink ref="G57" r:id="rId46" display="https://www.mouser.com/ProductDetail/Diodes-Incorporated/1N4148W-7-F?qs=sGAEpiMZZMtoHjESLttvkiKikX2YhTL0GOrSkzAUFgM%3D"/>
+    <hyperlink ref="G70" r:id="rId47" display="http://www.synthpanel.com/modules/cgs93_trunk.html"/>
+    <hyperlink ref="G73" r:id="rId48" display="https://www.amazon.com/dp/B089S34TSK/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1762,308 +1766,308 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="n">
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <f aca="false">E3*A3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="n">
+      <c r="E4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="n">
         <f aca="false">E4*A4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="n">
+      <c r="E5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="n">
         <f aca="false">E5*A5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="n">
+      <c r="E6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="n">
         <f aca="false">E6*A6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="n">
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="n">
         <f aca="false">E7*A7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="n">
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="n">
         <f aca="false">E8*A8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="n">
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="n">
         <f aca="false">E9*A9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="n">
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="n">
         <f aca="false">E10*A10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9" t="n">
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="n">
         <f aca="false">E11*A11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="n">
+      <c r="E12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10" t="n">
         <f aca="false">E12*A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="n">
+      <c r="E13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="n">
         <f aca="false">E13*A13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="n">
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="n">
         <f aca="false">E14*A14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9" t="n">
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="n">
         <f aca="false">E15*A15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9" t="n">
+      <c r="E16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="n">
         <f aca="false">E16*A16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="n">
+      <c r="E17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="n">
         <f aca="false">E17*A17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9" t="n">
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="n">
         <f aca="false">E18*A18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="n">
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="n">
         <f aca="false">E19*A19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="n">
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="n">
         <f aca="false">E20*A20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="n">
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="n">
         <f aca="false">E21*A21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="n">
+      <c r="E22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="n">
         <f aca="false">E22*A22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9" t="n">
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="n">
         <f aca="false">E23*A23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9" t="n">
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="n">
         <f aca="false">E24*A24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9" t="n">
+      <c r="E25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="n">
         <f aca="false">E25*A25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9" t="n">
+      <c r="E26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10" t="n">
         <f aca="false">E26*A26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9" t="n">
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10" t="n">
         <f aca="false">E27*A27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9" t="n">
+      <c r="E28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10" t="n">
         <f aca="false">E28*A28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9" t="n">
+      <c r="E29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="n">
         <f aca="false">E29*A29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9" t="n">
+      <c r="E30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10" t="n">
         <f aca="false">E30*A30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9" t="n">
+      <c r="E31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10" t="n">
         <f aca="false">E31*A31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9" t="n">
+      <c r="E32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10" t="n">
         <f aca="false">E32*A32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9" t="n">
+      <c r="E33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10" t="n">
         <f aca="false">E33*A33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9" t="n">
+      <c r="E34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10" t="n">
         <f aca="false">E34*A34</f>
         <v>0</v>
       </c>

--- a/Overall Design.xlsx
+++ b/Overall Design.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Complete</t>
   </si>
   <si>
-    <t xml:space="preserve">Designed from Recomended design from regulators Datasheets</t>
+    <t xml:space="preserve">Designed from Recommended design from regulators Datasheets</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=7174effa77</t>
@@ -790,17 +790,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.43"/>
@@ -813,7 +813,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="133.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="118.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="118.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1754,14 +1753,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
